--- a/regiszterek.xlsx
+++ b/regiszterek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\Samsung-cascade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adatok\Programming\munka\kinco-cascade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9217B388-7762-4EDE-9D0F-F192DFC1F1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E07F73B-DB11-4793-B4D5-2DF99182CD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{F552619D-3DC7-452B-B6C9-8781BC14C1AD}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{F552619D-3DC7-452B-B6C9-8781BC14C1AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -288,13 +288,13 @@
     <t>LW1007</t>
   </si>
   <si>
-    <t>HMV fűtés maximum gépek száma (db)</t>
-  </si>
-  <si>
     <t>HMV fűtés gép fenntartás igény esetén (maximum) (db)</t>
   </si>
   <si>
     <t>HMV fűtés gép fenntartás igény esetén (legalább) (db)</t>
+  </si>
+  <si>
+    <t>HMV cél hőmérséklet (°C)</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861EB664-A974-4BE9-BA0C-E2E28BBC582A}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,7 +774,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
